--- a/xlsx/索诺马县 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/索诺马县 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t>索诺马县 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_索诺马县 (加利福尼亚州)</t>
@@ -53,9 +53,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E5%A3%81%E7%B4%99</t>
   </si>
   <si>
-    <t>電腦壁紙</t>
+    <t>电脑壁纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bliss</t>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>法蘭西斯·德瑞克</t>
+    <t>法兰西斯·德瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥第一帝國</t>
+    <t>墨西哥第一帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8F%A4%E6%96%AF%E6%B1%80%E4%B8%80%E4%B8%96_(%E5%A2%A8%E8%A5%BF%E5%93%A5)</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%88%E7%9C%BE%E5%9C%8B_(1824%E2%80%931864)</t>
   </si>
   <si>
-    <t>墨西哥合眾國 (1824–1864)</t>
+    <t>墨西哥合众国 (1824–1864)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1906%E5%B9%B4%E8%88%8A%E9%87%91%E5%B1%B1%E5%A4%A7%E5%9C%B0%E9%9C%87</t>
   </si>
   <si>
-    <t>1906年舊金山大地震</t>
+    <t>1906年旧金山大地震</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BE%B7%E5%B1%B1</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -311,97 +308,91 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%9F%E8%91%97</t>
   </si>
   <si>
-    <t>美國土著</t>
+    <t>美国土著</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80</t>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E7%B7%9A</t>
   </si>
   <si>
-    <t>貧窮線</t>
+    <t>贫穷线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
@@ -449,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -467,19 +458,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -515,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -533,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -545,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%B3%A2%E8%90%A8%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -623,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -653,25 +644,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -683,31 +674,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -821,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -905,19 +896,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -935,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -977,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -1055,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -1085,19 +1076,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖塔克拉拉谷</t>
+    <t>圣塔克拉拉谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1109,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1643,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -1669,10 +1660,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
@@ -1698,10 +1689,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -1727,10 +1718,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1756,10 +1747,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1785,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1814,10 +1805,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1843,10 +1834,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1872,10 +1863,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1901,10 +1892,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1930,10 +1921,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1959,10 +1950,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1988,10 +1979,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -2017,10 +2008,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2046,10 +2037,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -2075,10 +2066,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2104,10 +2095,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2133,10 +2124,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2162,10 +2153,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2191,10 +2182,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -2220,10 +2211,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2249,10 +2240,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2278,10 +2269,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2307,10 +2298,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2336,10 +2327,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2365,10 +2356,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -2394,10 +2385,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2423,10 +2414,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2452,10 +2443,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2481,10 +2472,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2510,10 +2501,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2539,10 +2530,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2568,10 +2559,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2597,10 +2588,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2626,10 +2617,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2655,10 +2646,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2684,10 +2675,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2713,10 +2704,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2742,10 +2733,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2771,10 +2762,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2800,10 +2791,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2829,10 +2820,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2858,10 +2849,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2887,10 +2878,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2916,10 +2907,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2945,10 +2936,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2974,10 +2965,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3003,10 +2994,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3032,10 +3023,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3061,10 +3052,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3090,10 +3081,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3119,10 +3110,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3148,10 +3139,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3177,10 +3168,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3206,10 +3197,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3235,10 +3226,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3264,10 +3255,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3293,10 +3284,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3322,10 +3313,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3351,10 +3342,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3380,10 +3371,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3438,10 +3429,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3467,10 +3458,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3496,10 +3487,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3525,10 +3516,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3554,10 +3545,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3583,10 +3574,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
         <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>14</v>
       </c>
       <c r="G73" t="n">
         <v>12</v>
@@ -3612,10 +3603,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>18</v>
@@ -3641,10 +3632,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3670,10 +3661,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" t="s">
         <v>59</v>
-      </c>
-      <c r="F76" t="s">
-        <v>60</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3699,10 +3690,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3728,10 +3719,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3757,10 +3748,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>49</v>
@@ -3786,10 +3777,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3815,10 +3806,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3844,10 +3835,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3873,10 +3864,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3902,10 +3893,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3931,10 +3922,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3960,10 +3951,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3989,10 +3980,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4018,10 +4009,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4047,10 +4038,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4076,10 +4067,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4105,10 +4096,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4134,10 +4125,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4163,10 +4154,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4192,10 +4183,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4221,10 +4212,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4250,10 +4241,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" t="s">
         <v>41</v>
-      </c>
-      <c r="F96" t="s">
-        <v>42</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4279,10 +4270,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4308,10 +4299,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4337,10 +4328,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4366,10 +4357,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" t="s">
         <v>91</v>
-      </c>
-      <c r="F100" t="s">
-        <v>92</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4395,10 +4386,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4424,10 +4415,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4453,10 +4444,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4482,10 +4473,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4511,10 +4502,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4540,10 +4531,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4569,10 +4560,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
         <v>37</v>
-      </c>
-      <c r="F107" t="s">
-        <v>38</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4598,10 +4589,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4627,10 +4618,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4656,10 +4647,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4685,10 +4676,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4714,10 +4705,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4743,10 +4734,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4772,10 +4763,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4801,10 +4792,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4830,10 +4821,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4859,10 +4850,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4888,10 +4879,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4917,10 +4908,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4946,10 +4937,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4975,10 +4966,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -5004,10 +4995,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5033,10 +5024,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5062,10 +5053,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5091,10 +5082,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5120,10 +5111,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5149,10 +5140,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5178,10 +5169,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5207,10 +5198,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5236,10 +5227,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5265,10 +5256,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5294,10 +5285,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5323,10 +5314,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5352,10 +5343,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5381,10 +5372,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5410,10 +5401,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5439,10 +5430,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5468,10 +5459,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5497,10 +5488,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5526,10 +5517,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5555,10 +5546,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5584,10 +5575,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -5613,10 +5604,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5642,10 +5633,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5671,10 +5662,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5700,10 +5691,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5729,10 +5720,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5758,10 +5749,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5787,10 +5778,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5816,10 +5807,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5845,10 +5836,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5874,10 +5865,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5903,10 +5894,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5932,10 +5923,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5961,10 +5952,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F155" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -5990,10 +5981,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6019,10 +6010,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6048,10 +6039,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6077,10 +6068,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6106,10 +6097,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6135,10 +6126,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6164,10 +6155,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6193,10 +6184,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6222,10 +6213,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6251,10 +6242,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6280,10 +6271,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6309,10 +6300,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6338,10 +6329,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6367,10 +6358,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6396,10 +6387,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6425,10 +6416,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6454,10 +6445,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6483,10 +6474,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6512,10 +6503,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6541,10 +6532,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6570,10 +6561,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6599,10 +6590,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6628,10 +6619,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6657,10 +6648,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6686,10 +6677,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6715,10 +6706,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6744,10 +6735,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6773,10 +6764,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6802,10 +6793,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6831,10 +6822,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6860,10 +6851,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6889,10 +6880,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6918,10 +6909,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6947,10 +6938,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6976,10 +6967,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -7005,10 +6996,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7034,10 +7025,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
